--- a/public/preprocessing/@susipudjiastuti.xlsx
+++ b/public/preprocessing/@susipudjiastuti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23199</v>
+        <v>31041</v>
       </c>
       <c r="C2" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>rt at risk indian ocean yellowfin tuna are being overfished at alarming rates but fishery managers can act this month to</t>
+          <t>rt majelis permusyawaratan rakyat mpr membantah wacana penambahan masa jabatan presiden dan wakil presiden menjadi tiga peri</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['rt', 'at', 'risk', 'indian', 'ocean', 'yellowfin', 'tuna', 'are', 'being', 'overfished', 'at', 'alarming', 'rates', 'but', 'fishery', 'managers', 'can', 'act', 'this', 'month', 'to']</t>
+          <t>['rt', 'majelis', 'permusyawaratan', 'rakyat', 'mpr', 'membantah', 'wacana', 'penambahan', 'masa', 'jabatan', 'presiden', 'dan', 'wakil', 'presiden', 'menjadi', 'tiga', 'peri']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'majelis', 'permusyawaratan', 'rakyat', 'majelis, permusyawaratan, rakyat', 'membantah', 'wacana', 'penambahan', 'masa', 'jabatan', 'presiden', 'dan', 'wakil', 'presiden', 'menjadi', 'tiga', 'peri']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['at', 'risk', 'indian', 'ocean', 'yellowfin', 'tuna', 'are', 'being', 'overfished', 'at', 'alarming', 'rates', 'but', 'fishery', 'managers', 'can', 'act', 'this', 'month', 'to']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['at', 'risk', 'indian', 'ocean', 'yellowfin', 'tuna', 'are', 'being', 'overfished', 'at', 'alarming', 'rates', 'but', 'fishery', 'managers', 'can', 'act', 'this', 'month', 'to']</t>
+          <t>['majelis', 'permusyawaratan', 'rakyat', 'majelis, permusyawaratan, rakyat', 'membantah', 'wacana', 'penambahan', 'jabatan', 'presiden', 'wakil', 'presiden', 'peri']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['majelis', 'musyawarat', 'rakyat', 'majelis musyawarat rakyat', 'ban', 'wacana', 'tambah', 'jabat', 'presiden', 'wakil', 'presiden', 'peri']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23200</v>
+        <v>31042</v>
       </c>
       <c r="C3" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>polri bantu kementerian kelautan awasi larangan ekspor benih lobster</t>
+          <t>pak presiden yth mohon stop impor beras masyarakat masih ada yg panen panen juga berlimpah mohon berikan dukung</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['polri', 'bantu', 'kementerian', 'kelautan', 'awasi', 'larangan', 'ekspor', 'benih', 'lobster']</t>
+          <t>['pak', 'presiden', 'yth', 'mohon', 'stop', 'impor', 'beras', 'masyarakat', 'masih', 'ada', 'yg', 'panen', 'panen', 'juga', 'berlimpah', 'mohon', 'berikan', 'dukung']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['pak', 'presiden', 'yang, terhormat', 'mohon', 'stop', 'impor', 'beras', 'masyarakat', 'masih', 'ada', 'yang', 'panen', 'panen', 'juga', 'berlimpah', 'mohon', 'berikan', 'dukung']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['polri', 'bantu', 'kementerian', 'kelautan', 'awasi', 'larangan', 'ekspor', 'benih', 'lobster']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['polri', 'bantu', 'menteri', 'laut', 'awas', 'larang', 'ekspor', 'benih', 'lobster']</t>
+          <t>['presiden', 'yang, terhormat', 'mohon', 'stop', 'impor', 'beras', 'masyarakat', 'panen', 'panen', 'berlimpah', 'mohon', 'dukung']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['presiden', 'yang hormat', 'mohon', 'stop', 'impor', 'beras', 'masyarakat', 'panen', 'panen', 'limpah', 'mohon', 'dukung']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23201</v>
+        <v>31043</v>
       </c>
       <c r="C4" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt jokowi belum ada penelitian covid varian baru lebih mematikan</t>
+          <t>rt how one familyfun company ships sustainable seafood</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'jokowi', 'belum', 'ada', 'penelitian', 'covid', 'varian', 'baru', 'lebih', 'mematikan']</t>
+          <t>['rt', 'how', 'one', 'familyfun', 'company', 'ships', 'sustainable', 'seafood']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'how', 'one', 'familyfun', 'company', 'ships', 'sustainable', 'seafood']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['jokowi', 'penelitian', 'covid', 'varian', 'mematikan']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['jokowi', 'teliti', 'covid', 'varian', 'mati']</t>
+          <t>['how', 'one', 'familyfun', 'company', 'ships', 'sustainable', 'seafood']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['how', 'one', 'familyfun', 'company', 'ships', 'sustainable', 'seafood']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23202</v>
+        <v>31044</v>
       </c>
       <c r="C5" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt this million plane is built to withstand nuclear fallout emp attacks and more</t>
+          <t>lucu kayak boneka</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'this', 'million', 'plane', 'is', 'built', 'to', 'withstand', 'nuclear', 'fallout', 'emp', 'attacks', 'and', 'more']</t>
+          <t>['lucu', 'kayak', 'boneka']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['lucu', 'kayak', 'boneka']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['this', 'million', 'plane', 'is', 'built', 'to', 'withstand', 'nuclear', 'fallout', 'emp', 'attacks', 'and', 'more']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['this', 'million', 'plane', 'is', 'built', 'to', 'withstand', 'nuclear', 'fallout', 'emp', 'attacks', 'and', 'more']</t>
+          <t>['lucu', 'kayak', 'boneka']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['lucu', 'kayak', 'boneka']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23203</v>
+        <v>31045</v>
       </c>
       <c r="C6" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rt china kicks off its biggest political meeting of the year friday laying out plans that could propel the economy for the next</t>
+          <t>bukan modelnya</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['rt', 'china', 'kicks', 'off', 'its', 'biggest', 'political', 'meeting', 'of', 'the', 'year', 'friday', 'laying', 'out', 'plans', 'that', 'could', 'propel', 'the', 'economy', 'for', 'the', 'next']</t>
+          <t>['bukan', 'modelnya']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
+          <t>['bukan', 'modelnya']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['china', 'kicks', 'off', 'its', 'biggest', 'political', 'meeting', 'of', 'the', 'year', 'friday', 'laying', 'out', 'plans', 'that', 'could', 'propel', 'the', 'economy', 'for', 'the', 'next']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['china', 'kicks', 'off', 'its', 'biggest', 'political', 'meeting', 'of', 'the', 'year', 'friday', 'laying', 'out', 'plans', 'that', 'could', 'propel', 'the', 'economy', 'for', 'the', 'next']</t>
+          <t>['modelnya']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['model']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23204</v>
+        <v>31046</v>
       </c>
       <c r="C7" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>rt perpres nomor tahun tentang bidang usaha penanaman modal yang diteken presiden februari lalu mengunda</t>
+          <t>ok ok</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['rt', 'perpres', 'nomor', 'tahun', 'tentang', 'bidang', 'usaha', 'penanaman', 'modal', 'yang', 'diteken', 'presiden', 'februari', 'lalu', 'mengunda']</t>
+          <t>['ok', 'ok']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['oke', 'oke']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['perpres', 'nomor', 'bidang', 'usaha', 'penanaman', 'modal', 'diteken', 'presiden', 'februari', 'mengunda']</t>
+          <t>&lt;FreqDist with 1 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['pres', 'nomor', 'bidang', 'usaha', 'tanam', 'modal', 'teken', 'presiden', 'februari', 'unda']</t>
+          <t>['oke', 'oke']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['oke', 'oke']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23205</v>
+        <v>31047</v>
       </c>
       <c r="C8" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rt tv ini pesan bu susi untuk kita semua vaksin memang sudah ada tapi jangan sampai terlena karena tak berarti protokol kesehata</t>
+          <t>masih anak</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt', 'tv', 'ini', 'pesan', 'bu', 'susi', 'untuk', 'kita', 'semua', 'vaksin', 'memang', 'sudah', 'ada', 'tapi', 'jangan', 'sampai', 'terlena', 'karena', 'tak', 'berarti', 'protokol', 'kesehata']</t>
+          <t>['masih', 'anak']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
+          <t>['masih', 'anak']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['tv', 'pesan', 'bu', 'susi', 'vaksin', 'terlena', 'protokol', 'kesehata']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['tv', 'pesan', 'bu', 'sus', 'vaksin', 'lena', 'protokol', 'kesehata']</t>
+          <t>['anak']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['anak']</t>
         </is>
       </c>
     </row>
@@ -727,30 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23206</v>
+        <v>31048</v>
       </c>
       <c r="C9" t="n">
-        <v>280</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>bayar di muka dong</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bayar', 'di', 'muka', 'dong']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['bayar', 'di', 'muka', 'dong']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bayar', 'muka']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['bayar', 'muka']</t>
         </is>
       </c>
     </row>
@@ -759,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23207</v>
+        <v>31049</v>
       </c>
       <c r="C10" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt maman bgmna klw dmulai dari pemerintah dulu bu misalkan garam jgn dari luar dulu beras jgn dari luar dulu </t>
+          <t>tidak muda lagi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'maman', 'bgmna', 'klw', 'dmulai', 'dari', 'pemerintah', 'dulu', 'bu', 'misalkan', 'garam', 'jgn', 'dari', 'luar', 'dulu', 'beras', 'jgn', 'dari', 'luar', 'dulu']</t>
+          <t>['tidak', 'muda', 'lagi']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 20 outcomes&gt;</t>
+          <t>['tidak', 'muda', 'lagi']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['maman', 'bgmna', 'klw', 'dmulai', 'pemerintah', 'bu', 'garam', 'beras']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['maman', 'bgmna', 'klw', 'dmulai', 'perintah', 'bu', 'garam', 'beras']</t>
+          <t>['muda']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['muda']</t>
         </is>
       </c>
     </row>
@@ -795,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23208</v>
+        <v>31050</v>
       </c>
       <c r="C11" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rt maman dan persoalan apa yg tadi dibicarakan pak dalam konteks membeli barang lokal patut diapresiasi</t>
+          <t>setyanto tidak perlu</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['rt', 'maman', 'dan', 'persoalan', 'apa', 'yg', 'tadi', 'dibicarakan', 'pak', 'dalam', 'konteks', 'membeli', 'barang', 'lokal', 'patut', 'diapresiasi']</t>
+          <t>['setyanto', 'tidak', 'perlu']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['setyanto', 'tidak', 'perlu']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['maman', 'dibicarakan', 'konteks', 'membeli', 'barang', 'lokal', 'patut', 'diapresiasi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['maman', 'bicara', 'konteks', 'beli', 'barang', 'lokal', 'patut', 'apresiasi']</t>
+          <t>['setyanto']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['setyanto']</t>
         </is>
       </c>
     </row>
@@ -831,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23209</v>
+        <v>31051</v>
       </c>
       <c r="C12" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -844,15 +903,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -863,34 +927,35 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23210</v>
+        <v>31052</v>
       </c>
       <c r="C13" t="n">
-        <v>280</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>covid police break up fake vaccine network in china and south africa bbc news</t>
-        </is>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['covid', 'police', 'break', 'up', 'fake', 'vaccine', 'network', 'in', 'china', 'and', 'south', 'africa', 'bbc', 'news']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['covid', 'police', 'break', 'up', 'fake', 'vaccine', 'network', 'in', 'china', 'and', 'south', 'africa', 'bbc', 'news']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['covid', 'police', 'break', 'up', 'fake', 'vaccine', 'network', 'in', 'china', 'and', 'south', 'africa', 'bbc', 'news']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -899,34 +964,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23211</v>
+        <v>31053</v>
       </c>
       <c r="C14" t="n">
-        <v>280</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>indonesiansshould love local goods hate foreign products president jokowi cna</t>
-        </is>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['indonesiansshould', 'love', 'local', 'goods', 'hate', 'foreign', 'products', 'president', 'jokowi', 'cna']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['indonesiansshould', 'love', 'local', 'goods', 'hate', 'foreign', 'products', 'president', 'jokowi', 'cna']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['indonesiansshould', 'love', 'local', 'goods', 'hate', 'foreign', 'products', 'president', 'jokowi', 'cna']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -935,34 +1001,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23212</v>
+        <v>31054</v>
       </c>
       <c r="C15" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>rt benarkah gempa megathrust selalu bisa memicu tsunami ada berapa zona megathrust di indonesia simak penjelasannya</t>
+          <t>ya ogah dong yg dicari yg muda dan single</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rt', 'benarkah', 'gempa', 'megathrust', 'selalu', 'bisa', 'memicu', 'tsunami', 'ada', 'berapa', 'zona', 'megathrust', 'di', 'indonesia', 'simak', 'penjelasannya']</t>
+          <t>['ya', 'ogah', 'dong', 'yg', 'dicari', 'yg', 'muda', 'dan', 'single']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['ya', 'ogah', 'dong', 'yang', 'dicari', 'yang', 'muda', 'dan', 'single']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['gempa', 'megathrust', 'memicu', 'tsunami', 'zona', 'megathrust', 'indonesia', 'simak', 'penjelasannya']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['gempa', 'megathrust', 'picu', 'tsunami', 'zona', 'megathrust', 'indonesia', 'simak', 'jelas']</t>
+          <t>['ogah', 'dicari', 'muda', 'single']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['ogah', 'cari', 'muda', 'single']</t>
         </is>
       </c>
     </row>
@@ -971,34 +1042,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23213</v>
+        <v>31055</v>
       </c>
       <c r="C16" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt  virus corona varian baru terdeteksi di karawang jawa barat http</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'virus', 'corona', 'varian', 'baru', 'terdeteksi', 'di', 'karawang', 'jawa', 'barat', 'http']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['virus', 'corona', 'varian', 'terdeteksi', 'karawang', 'jawa', 'barat', 'http']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['virus', 'corona', 'varian', 'deteksi', 'karawang', 'jawa', 'barat', 'http']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1007,34 +1083,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23214</v>
+        <v>31056</v>
       </c>
       <c r="C17" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt bill gates heres when we can expect  full returntonormal</t>
+          <t>pemerintah canangkan impor beras di tengah panen raya petani itu menyakitkan bbc news indonesia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt', 'bill', 'gates', 'heres', 'when', 'we', 'can', 'expect', 'full', 'returntonormal']</t>
+          <t>['pemerintah', 'canangkan', 'impor', 'beras', 'di', 'tengah', 'panen', 'raya', 'petani', 'itu', 'menyakitkan', 'bbc', 'news', 'indonesia']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['pemerintah', 'canangkan', 'impor', 'beras', 'di', 'tengah', 'panen', 'raya', 'petani', 'itu', 'menyakitkan', 'bbc', 'news', 'indonesia']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['bill', 'gates', 'heres', 'when', 'we', 'can', 'expect', 'full', 'returntonormal']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['bill', 'gates', 'heres', 'when', 'we', 'can', 'expect', 'full', 'returntonormal']</t>
+          <t>['pemerintah', 'canangkan', 'impor', 'beras', 'panen', 'raya', 'petani', 'menyakitkan', 'bbc', 'news', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['perintah', 'canang', 'impor', 'beras', 'panen', 'raya', 'tani', 'sakit', 'bbc', 'news', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1043,34 +1124,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23215</v>
+        <v>31057</v>
       </c>
       <c r="C18" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>rt over sturgeon live at this european caviar farm</t>
+          <t>cerita lama yg selalu dibicarakan lagi tidak ada itu traditional historical fishing zone natuna dg nm nya</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rt', 'over', 'sturgeon', 'live', 'at', 'this', 'european', 'caviar', 'farm']</t>
+          <t>['cerita', 'lama', 'yg', 'selalu', 'dibicarakan', 'lagi', 'tidak', 'ada', 'itu', 'traditional', 'historical', 'fishing', 'zone', 'natuna', 'dg', 'nm', 'nya']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['cerita', 'lama', 'yang', 'selalu', 'dibicarakan', 'lagi', 'tidak', 'ada', 'itu', 'traditional', 'historical', 'fishing', 'zone', 'natuna', 'dengan', 'nm', 'nya']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['over', 'sturgeon', 'live', 'at', 'this', 'european', 'caviar', 'farm']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['over', 'sturgeon', 'live', 'at', 'this', 'european', 'caviar', 'farm']</t>
+          <t>['cerita', 'dibicarakan', 'traditional', 'historical', 'fishing', 'zone', 'natuna', 'nm']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['cerita', 'bicara', 'traditional', 'historical', 'fishing', 'zone', 'natuna', 'nm']</t>
         </is>
       </c>
     </row>
@@ -1079,34 +1165,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23216</v>
+        <v>31058</v>
       </c>
       <c r="C19" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>rt cerita mendag dibalik pidato benci produk asing presiden jokowi</t>
+          <t>untk bisnis ekspor bibit lobster uang sejumlah ini sangat kecil dulu ada kasus es kkp rek sd  kpk harus</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt', 'cerita', 'mendag', 'dibalik', 'pidato', 'benci', 'produk', 'asing', 'presiden', 'jokowi']</t>
+          <t>['untk', 'bisnis', 'ekspor', 'bibit', 'lobster', 'uang', 'sejumlah', 'ini', 'sangat', 'kecil', 'dulu', 'ada', 'kasus', 'es', 'kkp', 'rek', 'sd', 'kpk', 'harus']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['untuk', 'bisnis', 'ekspor', 'bibit', 'lobster', 'uang', 'sejumlah', 'ini', 'sangat', 'kecil', 'dulu', 'ada', 'kasus', 'es', 'kkp', 'rek', 'sekolah, dasar', 'komisi, pemberantasan, korupsi', 'harus']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['cerita', 'mendag', 'dibalik', 'pidato', 'benci', 'produk', 'asing', 'presiden', 'jokowi']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['cerita', 'mendag', 'balik', 'pidato', 'benci', 'produk', 'asing', 'presiden', 'jokowi']</t>
+          <t>['bisnis', 'ekspor', 'bibit', 'lobster', 'uang', 'es', 'kkp', 'rek', 'sekolah, dasar', 'komisi, pemberantasan, korupsi']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['bisnis', 'ekspor', 'bibit', 'lobster', 'uang', 'es', 'kkp', 'rek', 'sekolah dasar', 'komisi berantas korupsi']</t>
         </is>
       </c>
     </row>
@@ -1115,34 +1206,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23217</v>
+        <v>31059</v>
       </c>
       <c r="C20" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt jokowi minta produk brand asing digeser ke lokasi tak strategis agar produk lokal jadi pilihan apa tanggapan mendag muhammad</t>
+          <t>merokok tidak sehat</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt', 'jokowi', 'minta', 'produk', 'brand', 'asing', 'digeser', 'ke', 'lokasi', 'tak', 'strategis', 'agar', 'produk', 'lokal', 'jadi', 'pilihan', 'apa', 'tanggapan', 'mendag', 'muhammad']</t>
+          <t>['merokok', 'tidak', 'sehat']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['merokok', 'tidak', 'sehat']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['jokowi', 'produk', 'brand', 'asing', 'digeser', 'lokasi', 'strategis', 'produk', 'lokal', 'pilihan', 'tanggapan', 'mendag', 'muhammad']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['jokowi', 'produk', 'brand', 'asing', 'geser', 'lokasi', 'strategis', 'produk', 'lokal', 'pilih', 'tanggap', 'mendag', 'muhammad']</t>
+          <t>['merokok', 'sehat']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['rokok', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -1151,34 +1247,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23218</v>
+        <v>31060</v>
       </c>
       <c r="C21" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>rt saya justru tertarik pada uu no tahun tentang kelautan juga perpres no ta</t>
+          <t>rt menteri kelautan dan perikanan kkp sakti wahyu trenggono mengatakan untuk masalah impor garam sudah diputuskan di menko</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt', 'saya', 'justru', 'tertarik', 'pada', 'uu', 'no', 'tahun', 'tentang', 'kelautan', 'juga', 'perpres', 'no', 'ta']</t>
+          <t>['rt', 'menteri', 'kelautan', 'dan', 'perikanan', 'kkp', 'sakti', 'wahyu', 'trenggono', 'mengatakan', 'untuk', 'masalah', 'impor', 'garam', 'sudah', 'diputuskan', 'di', 'menko']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'menteri', 'kelautan', 'dan', 'perikanan', 'kkp', 'sakti', 'wahyu', 'trenggono', 'mengatakan', 'untuk', 'masalah', 'impor', 'garam', 'sudah', 'diputuskan', 'di', 'menteri, perekonomian']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['tertarik', 'uu', 'no', 'kelautan', 'perpres', 'no', 'ta']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['tarik', 'uu', 'no', 'laut', 'pres', 'no', 'ta']</t>
+          <t>['menteri', 'kelautan', 'perikanan', 'kkp', 'sakti', 'wahyu', 'trenggono', 'impor', 'garam', 'diputuskan', 'menteri, perekonomian']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['menteri', 'laut', 'ikan', 'kkp', 'sakti', 'wahyu', 'trenggono', 'impor', 'garam', 'putus', 'menteri ekonomi']</t>
         </is>
       </c>
     </row>
@@ -1187,34 +1288,35 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23219</v>
+        <v>31061</v>
       </c>
       <c r="C22" t="n">
-        <v>280</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>rt jika merujuk ke uu tsb arah pengelolaan bmkt adalah konservasi</t>
-        </is>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'jika', 'merujuk', 'ke', 'uu', 'tsb', 'arah', 'pengelolaan', 'bmkt', 'adalah', 'konservasi']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['merujuk', 'uu', 'tsb', 'arah', 'pengelolaan', 'bmkt', 'konservasi']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['rujuk', 'uu', 'tsb', 'arah', 'kelola', 'bmkt', 'konservasi']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1223,34 +1325,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>23220</v>
+        <v>31062</v>
       </c>
       <c r="C23" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt rmdhn kalau di perpres no tahun malah lebih banyak</t>
+          <t>malampun sudah terlewat selamat istirahat</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'rmdhn', 'kalau', 'di', 'perpres', 'no', 'tahun', 'malah', 'lebih', 'banyak']</t>
+          <t>['malampun', 'sudah', 'terlewat', 'selamat', 'istirahat']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['malampun', 'sudah', 'terlewat', 'selamat', 'istirahat']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['rmdhn', 'perpres', 'no']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['rmdhn', 'pres', 'no']</t>
+          <t>['malampun', 'terlewat', 'selamat', 'istirahat']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['malam', 'lewat', 'selamat', 'istirahat']</t>
         </is>
       </c>
     </row>
@@ -1259,34 +1366,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>23221</v>
+        <v>31063</v>
       </c>
       <c r="C24" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt jokowi izinkan asing cari harta karun ri susi mohon kita sudah banyak kehilangan benda bersejarah</t>
+          <t>sebagian telah selesai amp di signed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'jokowi', 'izinkan', 'asing', 'cari', 'harta', 'karun', 'ri', 'susi', 'mohon', 'kita', 'sudah', 'banyak', 'kehilangan', 'benda', 'bersejarah']</t>
+          <t>['sebagian', 'telah', 'selesai', 'amp', 'di', 'signed']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['sebagian', 'telah', 'selesai', 'amp', 'di', 'signed']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['jokowi', 'izinkan', 'asing', 'cari', 'harta', 'karun', 'ri', 'susi', 'mohon', 'kehilangan', 'benda', 'bersejarah']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['jokowi', 'izin', 'asing', 'cari', 'harta', 'karun', 'ri', 'sus', 'mohon', 'hilang', 'benda', 'sejarah']</t>
+          <t>['selesai', 'signed']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['selesai', 'signed']</t>
         </is>
       </c>
     </row>
@@ -1295,34 +1407,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23222</v>
+        <v>31064</v>
       </c>
       <c r="C25" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt dalam uu no tahun diatur juga bahwa bmkt sebagai benda cagar budaya tidak </t>
+          <t>melewati malam dg keindahan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['rt', 'dalam', 'uu', 'no', 'tahun', 'diatur', 'juga', 'bahwa', 'bmkt', 'sebagai', 'benda', 'cagar', 'budaya', 'tidak']</t>
+          <t>['melewati', 'malam', 'dg', 'keindahan']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['melewati', 'malam', 'dengan', 'keindahan']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['uu', 'no', 'diatur', 'bmkt', 'benda', 'cagar', 'budaya']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['uu', 'no', 'atur', 'bmkt', 'benda', 'cagar', 'budaya']</t>
+          <t>['melewati', 'malam', 'keindahan']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['lewat', 'malam', 'indah']</t>
         </is>
       </c>
     </row>
@@ -1331,34 +1448,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23223</v>
+        <v>31065</v>
       </c>
       <c r="C26" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rt bmkt di perpres no tahun</t>
+          <t>rt menteri kelautan dan perikanan sakti wahyu trenggono menemui nelayan pantura di pelabuhan perikanan nusantara ppn kejawan</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'bmkt', 'di', 'perpres', 'no', 'tahun']</t>
+          <t>['rt', 'menteri', 'kelautan', 'dan', 'perikanan', 'sakti', 'wahyu', 'trenggono', 'menemui', 'nelayan', 'pantura', 'di', 'pelabuhan', 'perikanan', 'nusantara', 'ppn', 'kejawan']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'menteri', 'kelautan', 'dan', 'perikanan', 'sakti', 'wahyu', 'trenggono', 'menemui', 'nelayan', 'pantura', 'di', 'pelabuhan', 'perikanan', 'nusantara', 'ppn', 'kejawan']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['bmkt', 'perpres', 'no']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['bmkt', 'pres', 'no']</t>
+          <t>['menteri', 'kelautan', 'perikanan', 'sakti', 'wahyu', 'trenggono', 'menemui', 'nelayan', 'pantura', 'pelabuhan', 'perikanan', 'nusantara', 'ppn', 'kejawan']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['menteri', 'laut', 'ikan', 'sakti', 'wahyu', 'trenggono', 'temu', 'nelayan', 'pantura', 'labuh', 'ikan', 'nusantara', 'ppn', 'kejawan']</t>
         </is>
       </c>
     </row>
@@ -1367,34 +1489,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23224</v>
+        <v>31066</v>
       </c>
       <c r="C27" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rt cc ibu bukannya bmkt itu tertutup bagi siapapun sesuai perpres no tahun</t>
+          <t>selamat hari raya nyepi tahun baru saka bagi yang menjalankan</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'cc', 'ibu', 'bukannya', 'bmkt', 'itu', 'tertutup', 'bagi', 'siapapun', 'sesuai', 'perpres', 'no', 'tahun']</t>
+          <t>['selamat', 'hari', 'raya', 'nyepi', 'tahun', 'baru', 'saka', 'bagi', 'yang', 'menjalankan']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'raya', 'nyepi', 'tahun', 'baru', 'saka', 'bagi', 'yang', 'menjalankan']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['cc', 'bmkt', 'tertutup', 'sesuai', 'perpres', 'no']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['cc', 'bmkt', 'tutup', 'sesuai', 'pres', 'no']</t>
+          <t>['selamat', 'raya', 'nyepi', 'saka', 'menjalankan']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['selamat', 'raya', 'nyepi', 'saka', 'jalan']</t>
         </is>
       </c>
     </row>
@@ -1403,34 +1530,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23225</v>
+        <v>31067</v>
       </c>
       <c r="C28" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>prop jet bukan piston</t>
+          <t>makan soto sambil menikmati matahari laut dan keindahan seni nikmat apa lagi yang dicari</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['prop', 'jet', 'bukan', 'piston']</t>
+          <t>['makan', 'soto', 'sambil', 'menikmati', 'matahari', 'laut', 'dan', 'keindahan', 'seni', 'nikmat', 'apa', 'lagi', 'yang', 'dicari']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['makan', 'soto', 'sambil', 'menikmati', 'matahari', 'laut', 'dan', 'keindahan', 'seni', 'nikmat', 'apa', 'lagi', 'yang', 'dicari']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['prop', 'jet', 'piston']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['prop', 'jet', 'piston']</t>
+          <t>['makan', 'soto', 'menikmati', 'matahari', 'laut', 'keindahan', 'seni', 'nikmat', 'dicari']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['makan', 'soto', 'nikmat', 'matahari', 'laut', 'indah', 'seni', 'nikmat', 'cari']</t>
         </is>
       </c>
     </row>
@@ -1439,34 +1571,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23226</v>
+        <v>31068</v>
       </c>
       <c r="C29" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ramalan megawati indonesia terancam kelaparan klik untuk baca</t>
+          <t xml:space="preserve">rt pak president yth bila penyelundupan bibit lobster homarrusamp  penicilatus bisa dihentikan gagalkan pengambilan </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['ramalan', 'megawati', 'indonesia', 'terancam', 'kelaparan', 'klik', 'untuk', 'baca']</t>
+          <t>['rt', 'pak', 'president', 'yth', 'bila', 'penyelundupan', 'bibit', 'lobster', 'homarrusamp', 'penicilatus', 'bisa', 'dihentikan', 'gagalkan', 'pengambilan']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'pak', 'presiden', 'yang, terhormat', 'bila', 'penyelundupan', 'bibit', 'lobster', 'homarrusamp', 'penicilatus', 'bisa', 'dihentikan', 'gagalkan', 'pengambilan']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['ramalan', 'megawati', 'indonesia', 'terancam', 'kelaparan', 'klik', 'baca']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['ramal', 'megawati', 'indonesia', 'ancam', 'lapar', 'klik', 'baca']</t>
+          <t>['presiden', 'yang, terhormat', 'penyelundupan', 'bibit', 'lobster', 'homarrusamp', 'penicilatus', 'dihentikan', 'gagalkan', 'pengambilan']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['presiden', 'yang hormat', 'selundup', 'bibit', 'lobster', 'homarrusamp', 'penicilatus', 'henti', 'gagal', 'ambil']</t>
         </is>
       </c>
     </row>
@@ -1475,34 +1612,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>23227</v>
+        <v>31069</v>
       </c>
       <c r="C30" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">sepertinya saya masih harus buat banyak vlog tentang ikan cupang lagi karena sampai hari ini pun masih banyak </t>
+          <t>rt cek di youtube yak gtgtgt</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['sepertinya', 'saya', 'masih', 'harus', 'buat', 'banyak', 'vlog', 'tentang', 'ikan', 'cupang', 'lagi', 'karena', 'sampai', 'hari', 'ini', 'pun', 'masih', 'banyak']</t>
+          <t>['rt', 'cek', 'di', 'youtube', 'yak', 'gtgtgt']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'cek', 'di', 'youtube', 'ya', 'gtgtgt']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['vlog', 'ikan', 'cupang']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['vlog', 'ikan', 'cupang']</t>
+          <t>['cek', 'youtube', 'gtgtgt']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['cek', 'youtube', 'gtgtgt']</t>
         </is>
       </c>
     </row>
@@ -1511,34 +1653,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>23228</v>
+        <v>31070</v>
       </c>
       <c r="C31" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>marela sibuk main malika sibuk makan saya tinggal ke pantai sambil nyoba naik trail saja</t>
+          <t>rt permisi numpang taroh sexy killer biar pada inget sebahaya apa limbah batu bara</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['marela', 'sibuk', 'main', 'malika', 'sibuk', 'makan', 'saya', 'tinggal', 'ke', 'pantai', 'sambil', 'nyoba', 'naik', 'trail', 'saja']</t>
+          <t>['rt', 'permisi', 'numpang', 'taroh', 'sexy', 'killer', 'biar', 'pada', 'inget', 'sebahaya', 'apa', 'limbah', 'batu', 'bara']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'permisi', 'menumpang', 'taroh', 'sexy', 'killer', 'biar', 'pada', 'ingat', 'sebahaya', 'apa', 'limbah', 'batu', 'bara']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['marela', 'sibuk', 'main', 'malika', 'sibuk', 'makan', 'tinggal', 'pantai', 'nyoba', 'trail']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['marela', 'sibuk', 'main', 'malika', 'sibuk', 'makan', 'tinggal', 'pantai', 'nyoba', 'trail']</t>
+          <t>['permisi', 'menumpang', 'taroh', 'sexy', 'killer', 'sebahaya', 'limbah', 'batu', 'bara']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['permisi', 'tumpang', 'taroh', 'sexy', 'killer', 'bahaya', 'limbah', 'batu', 'bara']</t>
         </is>
       </c>
     </row>
@@ -1547,34 +1694,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>23229</v>
+        <v>31071</v>
       </c>
       <c r="C32" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt hasan ini petugas di thailand gk tau klo di indonesia</t>
+          <t>sgm daerah mana</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt', 'hasan', 'ini', 'petugas', 'di', 'thailand', 'gk', 'tau', 'klo', 'di', 'indonesia']</t>
+          <t>['sgm', 'daerah', 'mana']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['sgm', 'daerah', 'mana']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['hasan', 'petugas', 'thailand', 'gk', 'indonesia']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['hasan', 'tugas', 'thailand', 'gk', 'indonesia']</t>
+          <t>['sgm', 'daerah']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['sgm', 'daerah']</t>
         </is>
       </c>
     </row>
@@ -1583,34 +1735,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23230</v>
+        <v>31072</v>
       </c>
       <c r="C33" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt hasan sudah berlangsung lama buk</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'hasan', 'sudah', 'berlangsung', 'lama', 'buk']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['hasan', 'buk']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['hasan', 'buk']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1619,34 +1776,35 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23231</v>
+        <v>31073</v>
       </c>
       <c r="C34" t="n">
-        <v>280</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>rt padahal kan bu</t>
-        </is>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'padahal', 'kan', 'bu']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['bu']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['bu']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1655,34 +1813,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23232</v>
+        <v>31074</v>
       </c>
       <c r="C35" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt jepang berlakukan karantina ekstra ketat untuk pelintas dari negara</t>
+          <t>rt top news koran rakyat merdeka pilih anies apa ganjar susi maunya berondong</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'jepang', 'berlakukan', 'karantina', 'ekstra', 'ketat', 'untuk', 'pelintas', 'dari', 'negara']</t>
+          <t>['rt', 'top', 'news', 'koran', 'rakyat', 'merdeka', 'pilih', 'anies', 'apa', 'ganjar', 'susi', 'maunya', 'berondong']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'top', 'news', 'koran', 'rakyat', 'merdeka', 'pilih', 'anies', 'apa', 'ganjar', 'susi', 'maunya', 'berondong']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['jepang', 'berlakukan', 'karantina', 'ekstra', 'ketat', 'pelintas', 'negara']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['jepang', 'laku', 'karantina', 'ekstra', 'ketat', 'lintas', 'negara']</t>
+          <t>['top', 'news', 'koran', 'rakyat', 'merdeka', 'pilih', 'anies', 'ganjar', 'susi', 'maunya', 'berondong']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['top', 'news', 'koran', 'rakyat', 'merdeka', 'pilih', 'anies', 'ganjar', 'sus', 'mau', 'berondong']</t>
         </is>
       </c>
     </row>
@@ -1691,34 +1854,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23233</v>
+        <v>31075</v>
       </c>
       <c r="C36" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rt vibes tu asik banget emang no kecot credit instagramncittraa</t>
+          <t>siapa bilang</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'vibes', 'tu', 'asik', 'banget', 'emang', 'no', 'kecot', 'credit', 'instagramncittraa']</t>
+          <t>['siapa', 'bilang']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['siapa', 'bilang']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['vibes', 'tu', 'asik', 'banget', 'emang', 'no', 'kecot', 'credit', 'instagramncittraa']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['vibes', 'tu', 'asik', 'banget', 'emang', 'no', 'kecot', 'credit', 'instagramncittraa']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1727,34 +1895,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23234</v>
+        <v>31076</v>
       </c>
       <c r="C37" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>mention kkp pak</t>
+          <t>rt dubai unveils  plan that envisages the population growing by and making the citys quality of life the best in the world</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['mention', 'kkp', 'pak']</t>
+          <t>['rt', 'dubai', 'unveils', 'plan', 'that', 'envisages', 'the', 'population', 'growing', 'by', 'and', 'making', 'the', 'citys', 'quality', 'of', 'life', 'the', 'best', 'in', 'the', 'world']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'dubai', 'unveils', 'plan', 'that', 'envisages', 'the', 'population', 'growing', 'by', 'and', 'making', 'the', 'citys', 'quality', 'of', 'life', 'the', 'best', 'in', 'the', 'world']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['mention', 'kkp']</t>
+          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['mention', 'kkp']</t>
+          <t>['dubai', 'unveils', 'plan', 'that', 'envisages', 'the', 'population', 'growing', 'by', 'and', 'making', 'the', 'citys', 'quality', 'of', 'life', 'the', 'best', 'in', 'the', 'world']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['dubai', 'unveils', 'plan', 'that', 'envisages', 'the', 'population', 'growing', 'by', 'and', 'making', 'the', 'citys', 'quality', 'of', 'life', 'the', 'best', 'in', 'the', 'world']</t>
         </is>
       </c>
     </row>
@@ -1763,34 +1936,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23235</v>
+        <v>31077</v>
       </c>
       <c r="C38" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt jahat sekali itu termasuk nelayan payang juga pak kirakira berapa mil dr pantai wilaya</t>
+          <t>rt  liter of blood plasma is worth up to on the open market but what makes it so expensive</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'jahat', 'sekali', 'itu', 'termasuk', 'nelayan', 'payang', 'juga', 'pak', 'kirakira', 'berapa', 'mil', 'dr', 'pantai', 'wilaya']</t>
+          <t>['rt', 'liter', 'of', 'blood', 'plasma', 'is', 'worth', 'up', 'to', 'on', 'the', 'open', 'market', 'but', 'what', 'makes', 'it', 'so', 'expensive']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'liter', 'of', 'blood', 'plasma', 'is', 'worth', 'up', 'to', 'on', 'the', 'open', 'market', 'but', 'apa', 'makes', 'it', 'sok', 'expensive']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['jahat', 'nelayan', 'payang', 'kirakira', 'mil', 'dr', 'pantai', 'wilaya']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['jahat', 'nelayan', 'payang', 'kirakira', 'mil', 'dr', 'pantai', 'wilaya']</t>
+          <t>['liter', 'of', 'blood', 'plasma', 'is', 'worth', 'up', 'to', 'on', 'the', 'open', 'market', 'but', 'makes', 'it', 'sok', 'expensive']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['liter', 'of', 'blood', 'plasma', 'is', 'worth', 'up', 'to', 'on', 'the', 'open', 'market', 'but', 'makes', 'it', 'sok', 'expensive']</t>
         </is>
       </c>
     </row>
@@ -1799,30 +1977,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23236</v>
+        <v>31078</v>
       </c>
       <c r="C39" t="n">
-        <v>280</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>rt what its like to use  flightsharing platform</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'what', 'its', 'like', 'to', 'use', 'flightsharing', 'platform']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'apa', 'ini', 'like', 'to', 'use', 'flightsharing', 'platform']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['like', 'to', 'use', 'flightsharing', 'platform']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['like', 'to', 'use', 'flightsharing', 'platform']</t>
         </is>
       </c>
     </row>
@@ -1831,30 +2018,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23237</v>
+        <v>31079</v>
       </c>
       <c r="C40" t="n">
-        <v>280</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>rt why this navy seal believes you should wake up at am every day</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'why', 'this', 'navy', 'seal', 'believes', 'you', 'should', 'wake', 'up', 'at', 'am', 'every', 'day']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'kenapa', 'this', 'navy', 'seal', 'believes', 'kamu', 'should', 'wake', 'up', 'at', 'am', 'every', 'day']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['this', 'navy', 'seal', 'believes', 'should', 'wake', 'up', 'at', 'am', 'every', 'day']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['this', 'navy', 'seal', 'believes', 'should', 'wake', 'up', 'at', 'am', 'every', 'day']</t>
         </is>
       </c>
     </row>
@@ -1863,34 +2059,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23238</v>
+        <v>31080</v>
       </c>
       <c r="C41" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>rt fakhlevi bu susi ini karena ada perusahaan treasure hunter milik orang luar</t>
+          <t xml:space="preserve">rt china is doing  much better job sharing its covid vaccine with the world than western nations are </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'fakhlevi', 'bu', 'susi', 'ini', 'karena', 'ada', 'perusahaan', 'treasure', 'hunter', 'milik', 'orang', 'luar']</t>
+          <t>['rt', 'china', 'is', 'doing', 'much', 'better', 'job', 'sharing', 'its', 'covid', 'vaccine', 'with', 'the', 'world', 'than', 'western', 'nations', 'are']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'cina', 'is', 'doing', 'much', 'better', 'job', 'sharing', 'ini', 'covid', 'vaccine', 'dengan', 'the', 'world', 'tahan', 'western', 'nations', 'are']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['fakhlevi', 'bu', 'susi', 'perusahaan', 'treasure', 'hunter', 'milik', 'orang']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['fakhlevi', 'bu', 'sus', 'usaha', 'treasure', 'hunter', 'milik', 'orang']</t>
+          <t>['cina', 'is', 'doing', 'much', 'better', 'job', 'sharing', 'covid', 'vaccine', 'the', 'world', 'tahan', 'western', 'nations', 'are']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['cina', 'is', 'doing', 'much', 'better', 'job', 'sharing', 'covid', 'vaccine', 'the', 'world', 'tahan', 'western', 'nations', 'are']</t>
         </is>
       </c>
     </row>
@@ -1899,34 +2100,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23239</v>
+        <v>31081</v>
       </c>
       <c r="C42" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt  di mentawai surfing dan diving turis hanyalah alasan tujuan aslinya harta </t>
+          <t>rt this standup paddleboard uses pedals to move</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'di', 'mentawai', 'surfing', 'dan', 'diving', 'turis', 'hanyalah', 'alasan', 'tujuan', 'aslinya', 'harta']</t>
+          <t>['rt', 'this', 'standup', 'paddleboard', 'uses', 'pedals', 'to', 'move']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'this', 'stand, up', 'paddleboard', 'uses', 'pedals', 'to', 'pindah']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['mentawai', 'surfing', 'diving', 'turis', 'alasan', 'tujuan', 'aslinya', 'harta']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['tawa', 'surfing', 'diving', 'turis', 'alas', 'tuju', 'asli', 'harta']</t>
+          <t>['this', 'stand, up', 'paddleboard', 'uses', 'pedals', 'to', 'pindah']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['this', 'stand up', 'paddleboard', 'uses', 'pedals', 'to', 'pindah']</t>
         </is>
       </c>
     </row>
@@ -1935,34 +2141,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23240</v>
+        <v>31082</v>
       </c>
       <c r="C43" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>cabut saja rumponnya</t>
+          <t>rt six uses for silica gel bags</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['cabut', 'saja', 'rumponnya']</t>
+          <t>['rt', 'six', 'uses', 'for', 'silica', 'gel', 'bags']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'six', 'uses', 'for', 'silica', 'gel', 'bags']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['cabut', 'rumponnya']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['cabut', 'rumpon']</t>
+          <t>['six', 'uses', 'for', 'silica', 'gel', 'bags']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['six', 'uses', 'for', 'silica', 'gel', 'bags']</t>
         </is>
       </c>
     </row>
@@ -1971,34 +2182,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23241</v>
+        <v>31083</v>
       </c>
       <c r="C44" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>rt bu susi nelayan pameungpeuk garut susah dapat ikan menurut mereka ditengah laut dipasang rumpon sa</t>
+          <t>rt this man collects plastic along londons canals on  floating bike</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'bu', 'susi', 'nelayan', 'pameungpeuk', 'garut', 'susah', 'dapat', 'ikan', 'menurut', 'mereka', 'ditengah', 'laut', 'dipasang', 'rumpon', 'sa']</t>
+          <t>['rt', 'this', 'man', 'collects', 'plastic', 'along', 'londons', 'canals', 'on', 'floating', 'bike']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'this', 'man', 'collects', 'plastic', 'along', 'londons', 'canals', 'on', 'floating', 'bike']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['bu', 'susi', 'nelayan', 'pameungpeuk', 'garut', 'susah', 'ikan', 'ditengah', 'laut', 'dipasang', 'rumpon', 'sa']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['bu', 'sus', 'nelayan', 'pameungpeuk', 'garut', 'susah', 'ikan', 'tengah', 'laut', 'pasang', 'rumpon', 'sa']</t>
+          <t>['this', 'man', 'collects', 'plastic', 'along', 'londons', 'canals', 'on', 'floating', 'bike']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['this', 'man', 'collects', 'plastic', 'along', 'londons', 'canals', 'on', 'floating', 'bike']</t>
         </is>
       </c>
     </row>
@@ -2007,34 +2223,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23242</v>
+        <v>31084</v>
       </c>
       <c r="C45" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>rt menurut mereka karena kecegat rumpon ikan gak mau kepinggir dan masih kata mereka rumpon tersebut dipas</t>
+          <t>rt roughly shark species can be found in our oceanshow many do you know</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rt', 'menurut', 'mereka', 'karena', 'kecegat', 'rumpon', 'ikan', 'gak', 'mau', 'kepinggir', 'dan', 'masih', 'kata', 'mereka', 'rumpon', 'tersebut', 'dipas']</t>
+          <t>['rt', 'roughly', 'shark', 'species', 'can', 'be', 'found', 'in', 'our', 'oceanshow', 'many', 'do', 'you', 'know']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'roughly', 'shark', 'species', 'can', 'be', 'found', 'in', 'our', 'oceanshow', 'many', 'do', 'kamu', 'know']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['kecegat', 'rumpon', 'ikan', 'kepinggir', 'rumpon', 'dipas']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['cegat', 'rumpon', 'ikan', 'pinggir', 'rumpon', 'pas']</t>
+          <t>['roughly', 'shark', 'species', 'can', 'be', 'found', 'in', 'our', 'oceanshow', 'many', 'do', 'know']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['roughly', 'shark', 'species', 'can', 'be', 'found', 'in', 'our', 'oceanshow', 'many', 'do', 'know']</t>
         </is>
       </c>
     </row>
@@ -2043,34 +2264,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23243</v>
+        <v>31085</v>
       </c>
       <c r="C46" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>pak presiden amp pak menkp mohon dg segala kerendahan hati utk bmkt dikelola</t>
+          <t>rt three billion people around the world rely on seafood as their main source of protein</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['pak', 'presiden', 'amp', 'pak', 'menkp', 'mohon', 'dg', 'segala', 'kerendahan', 'hati', 'utk', 'bmkt', 'dikelola']</t>
+          <t>['rt', 'three', 'billion', 'people', 'around', 'the', 'world', 'rely', 'on', 'seafood', 'as', 'their', 'main', 'source', 'of', 'protein']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'three', 'billion', 'people', 'around', 'the', 'world', 'rely', 'on', 'seafood', 'as', 'their', 'main', 'source', 'of', 'protein']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['presiden', 'menkp', 'mohon', 'kerendahan', 'hati', 'bmkt', 'dikelola']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['presiden', 'menkp', 'mohon', 'rendah', 'hati', 'bmkt', 'kelola']</t>
+          <t>['three', 'billion', 'people', 'around', 'the', 'world', 'rely', 'on', 'seafood', 'as', 'their', 'main', 'source', 'of', 'protein']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['three', 'billion', 'people', 'around', 'the', 'world', 'rely', 'on', 'seafood', 'as', 'their', 'main', 'source', 'of', 'protein']</t>
         </is>
       </c>
     </row>
@@ -2079,34 +2305,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>23244</v>
+        <v>31086</v>
       </c>
       <c r="C47" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>streaming</t>
+          <t>rt this is why jogging alone wont help you lose weight</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['streaming']</t>
+          <t>['rt', 'this', 'is', 'why', 'jogging', 'alone', 'wont', 'help', 'you', 'lose', 'weight']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'this', 'is', 'kenapa', 'jogging', 'alone', 'wont', 'help', 'kamu', 'lose', 'weight']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['streaming']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['streaming']</t>
+          <t>['this', 'is', 'jogging', 'alone', 'wont', 'help', 'lose', 'weight']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'jogging', 'alone', 'wont', 'help', 'lose', 'weight']</t>
         </is>
       </c>
     </row>
@@ -2115,30 +2346,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23245</v>
+        <v>31087</v>
       </c>
       <c r="C48" t="n">
-        <v>280</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>rt this market in india uses food waste to power buildings streetlights and  kitchen that serves meals  day</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'this', 'market', 'in', 'india', 'uses', 'food', 'waste', 'to', 'power', 'buildings', 'streetlights', 'and', 'kitchen', 'that', 'serves', 'meals', 'day']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'this', 'market', 'in', 'india', 'uses', 'food', 'waste', 'to', 'power', 'buildings', 'streetlights', 'and', 'dapur', 'that', 'serves', 'meals', 'day']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['this', 'market', 'in', 'india', 'uses', 'food', 'waste', 'to', 'power', 'buildings', 'streetlights', 'and', 'dapur', 'that', 'serves', 'meals', 'day']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['this', 'market', 'in', 'india', 'uses', 'food', 'waste', 'to', 'power', 'buildings', 'streetlights', 'and', 'dapur', 'that', 'serves', 'meals', 'day']</t>
         </is>
       </c>
     </row>
@@ -2147,34 +2387,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23246</v>
+        <v>31088</v>
       </c>
       <c r="C49" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt tv ibu mohon tolong bantu sy sy hnya seora</t>
+          <t>rt premium strawberries that sell for  piece are helping one japanese town to recover from the tsunami</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'tv', 'ibu', 'mohon', 'tolong', 'bantu', 'sy', 'sy', 'hnya', 'seora']</t>
+          <t>['rt', 'premium', 'strawberries', 'that', 'sell', 'for', 'piece', 'are', 'helping', 'one', 'japanese', 'town', 'to', 'recover', 'from', 'the', 'tsunami']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'premium', 'strawberries', 'that', 'sell', 'for', 'piece', 'are', 'helping', 'one', 'japanese', 'town', 'to', 'recover', 'from', 'the', 'tsunami']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['tv', 'mohon', 'tolong', 'bantu', 'sy', 'sy', 'hnya', 'seora']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['tv', 'mohon', 'tolong', 'bantu', 'sy', 'sy', 'hnya', 'seora']</t>
+          <t>['premium', 'strawberries', 'that', 'sell', 'for', 'piece', 'are', 'helping', 'one', 'japanese', 'town', 'to', 'recover', 'from', 'the', 'tsunami']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['premium', 'strawberries', 'that', 'sell', 'for', 'piece', 'are', 'helping', 'one', 'japanese', 'town', 'to', 'recover', 'from', 'the', 'tsunami']</t>
         </is>
       </c>
     </row>
@@ -2183,34 +2428,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>23247</v>
+        <v>31089</v>
       </c>
       <c r="C50" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>streaming di hp</t>
+          <t>id yg gagal dilelang adalah sisa yg kurang bagus atau pecah yg bagus dan mulus mereka sudah ambil dul</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['streaming', 'di', 'hp']</t>
+          <t>['id', 'yg', 'gagal', 'dilelang', 'adalah', 'sisa', 'yg', 'kurang', 'bagus', 'atau', 'pecah', 'yg', 'bagus', 'dan', 'mulus', 'mereka', 'sudah', 'ambil', 'dul']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['id', 'yang', 'gagal', 'dilelang', 'adalah', 'sisa', 'yang', 'kurang', 'bagus', 'atau', 'pecah', 'yang', 'bagus', 'dan', 'mulus', 'mereka', 'sudah', 'ambil', 'dul']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['streaming', 'hp']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['streaming', 'hp']</t>
+          <t>['id', 'gagal', 'dilelang', 'sisa', 'bagus', 'pecah', 'bagus', 'mulus', 'ambil', 'dul']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['id', 'gagal', 'lelang', 'sisa', 'bagus', 'pecah', 'bagus', 'mulus', 'ambil', 'dul']</t>
         </is>
       </c>
     </row>
@@ -2219,30 +2469,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23248</v>
+        <v>31090</v>
       </c>
       <c r="C51" t="n">
-        <v>280</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>rt apa respons susi pudjiastuti ketika disuruh milih anies dan ganjar</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'apa', 'respons', 'susi', 'pudjiastuti', 'ketika', 'disuruh', 'milih', 'anies', 'dan', 'ganjar']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'apa', 'respons', 'susi', 'pudjiastuti', 'ketika', 'disuruh', 'memilih', 'anies', 'dan', 'ganjar']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['respons', 'susi', 'pudjiastuti', 'disuruh', 'memilih', 'anies', 'ganjar']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['respons', 'sus', 'pudjiastuti', 'suruh', 'pilih', 'anies', 'ganjar']</t>
         </is>
       </c>
     </row>
@@ -2251,34 +2510,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23249</v>
+        <v>31091</v>
       </c>
       <c r="C52" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt selamat menyaksikan yaa kawan susi silakan streaming di website atau youtube metr</t>
+          <t>rt sembilan dari sepuluh responden percaya bahwa kehidupan kerja akan terlihat berbeda setelah pandemi covid</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'menyaksikan', 'yaa', 'kawan', 'susi', 'silakan', 'streaming', 'di', 'website', 'atau', 'youtube', 'metr']</t>
+          <t>['rt', 'sembilan', 'dari', 'sepuluh', 'responden', 'percaya', 'bahwa', 'kehidupan', 'kerja', 'akan', 'terlihat', 'berbeda', 'setelah', 'pandemi', 'covid']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'sembilan', 'dari', 'sepuluh', 'responden', 'percaya', 'bahwa', 'kehidupan', 'kerja', 'akan', 'terlihat', 'berbeda', 'setelah', 'pandemi', 'covid']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['selamat', 'menyaksikan', 'yaa', 'kawan', 'susi', 'silakan', 'streaming', 'website', 'youtube', 'metr']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['selamat', 'saksi', 'yaa', 'kawan', 'sus', 'sila', 'streaming', 'website', 'youtube', 'metr']</t>
+          <t>['sembilan', 'sepuluh', 'responden', 'percaya', 'kehidupan', 'kerja', 'berbeda', 'pandemi', 'covid']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['sembilan', 'puluh', 'responden', 'percaya', 'hidup', 'kerja', 'beda', 'pandemi', 'covid']</t>
         </is>
       </c>
     </row>
@@ -2287,34 +2551,35 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23250</v>
+        <v>31092</v>
       </c>
       <c r="C53" t="n">
-        <v>280</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>nonton yuk pembicaraan santai namun sangat berisi dengan pak erros djarot jam malam ini di acara di</t>
-        </is>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['nonton', 'yuk', 'pembicaraan', 'santai', 'namun', 'sangat', 'berisi', 'dengan', 'pak', 'erros', 'djarot', 'jam', 'malam', 'ini', 'di', 'acara', 'di']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['nonton', 'yuk', 'pembicaraan', 'santai', 'berisi', 'erros', 'djarot', 'jam', 'malam', 'acara']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['nonton', 'yuk', 'bicara', 'santai', 'isi', 'erros', 'djarot', 'jam', 'malam', 'acara']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2323,34 +2588,35 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23251</v>
+        <v>31093</v>
       </c>
       <c r="C54" t="n">
-        <v>280</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>streaming di hp</t>
-        </is>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['streaming', 'di', 'hp']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['streaming', 'hp']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['streaming', 'hp']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2359,34 +2625,35 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23252</v>
+        <v>31094</v>
       </c>
       <c r="C55" t="n">
-        <v>280</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>streaming pake hp</t>
-        </is>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['streaming', 'pake', 'hp']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['streaming', 'pake', 'hp']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['streaming', 'pake', 'hp']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2395,34 +2662,35 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>23253</v>
+        <v>31095</v>
       </c>
       <c r="C56" t="n">
-        <v>280</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>sakit hati rugi sendiri ngapain</t>
-        </is>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['sakit', 'hati', 'rugi', 'sendiri', 'ngapain']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['sakit', 'hati', 'rugi', 'ngapain']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['sakit', 'hati', 'rugi', 'ngapain']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2431,30 +2699,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>23254</v>
+        <v>31096</v>
       </c>
       <c r="C57" t="n">
-        <v>280</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>suruh pensiun saja</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['suruh', 'pensiun', 'saja']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['suruh', 'pensiun', 'saja']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['suruh', 'pensiun']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['suruh', 'pensiun']</t>
         </is>
       </c>
     </row>
@@ -2463,34 +2740,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23255</v>
+        <v>31097</v>
       </c>
       <c r="C58" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>tv ini lho asyik nonto ya kalau ndak mau tenggelam</t>
+          <t>rt nesuu ndak mau dibilang tua dan ubanan</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['tv', 'ini', 'lho', 'asyik', 'nonto', 'ya', 'kalau', 'ndak', 'mau', 'tenggelam']</t>
+          <t>['rt', 'nesuu', 'ndak', 'mau', 'dibilang', 'tua', 'dan', 'ubanan']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'nesuu', 'tidak', 'mau', 'dibilang', 'tua', 'dan', 'ubanan']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['tv', 'lho', 'asyik', 'nonto', 'ndak', 'tenggelam']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['tv', 'lho', 'asyik', 'nonto', 'ndak', 'tenggelam']</t>
+          <t>['nesuu', 'dibilang', 'tua', 'ubanan']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['nesuu', 'bilang', 'tua', 'uban']</t>
         </is>
       </c>
     </row>
@@ -2499,34 +2781,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23256</v>
+        <v>31098</v>
       </c>
       <c r="C59" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>rt sebuah obrolan yang sangat menginspirasi antara ibu dan pak erros djarot jangan lewatkan</t>
+          <t>nesuu ndak mau dibilang tua dan ubanan</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['rt', 'sebuah', 'obrolan', 'yang', 'sangat', 'menginspirasi', 'antara', 'ibu', 'dan', 'pak', 'erros', 'djarot', 'jangan', 'lewatkan']</t>
+          <t>['nesuu', 'ndak', 'mau', 'dibilang', 'tua', 'dan', 'ubanan']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['nesuu', 'tidak', 'mau', 'dibilang', 'tua', 'dan', 'ubanan']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['obrolan', 'menginspirasi', 'erros', 'djarot', 'lewatkan']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['obrol', 'inspirasi', 'erros', 'djarot', 'lewat']</t>
+          <t>['nesuu', 'dibilang', 'tua', 'ubanan']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['nesuu', 'bilang', 'tua', 'uban']</t>
         </is>
       </c>
     </row>
@@ -2535,34 +2822,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23257</v>
+        <v>31099</v>
       </c>
       <c r="C60" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>cari dulu bro</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['cari', 'dulu', 'bro']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['cari', 'bro']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['cari', 'bro']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2571,34 +2863,35 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23258</v>
+        <v>31100</v>
       </c>
       <c r="C61" t="n">
-        <v>280</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>ajooo yesss</t>
-        </is>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['ajooo', 'yesss']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['ajooo', 'yesss']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['ajooo', 'yesss']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2607,34 +2900,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>23259</v>
+        <v>31101</v>
       </c>
       <c r="C62" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>baru tahu ya</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['ns']</t>
+          <t>['baru', 'tahu', 'ya']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['baru', 'tahu', 'ya']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['ns']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['ns']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2643,10 +2941,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>23260</v>
+        <v>31102</v>
       </c>
       <c r="C63" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -2656,15 +2954,20 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2675,34 +2978,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>23261</v>
+        <v>31103</v>
       </c>
       <c r="C64" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>achmadi</t>
+          <t>rt mereka berdua sudah punya isteri sudah beruban semua cariin yg single</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['achmadi']</t>
+          <t>['rt', 'mereka', 'berdua', 'sudah', 'punya', 'isteri', 'sudah', 'beruban', 'semua', 'cariin', 'yg', 'single']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'mereka', 'berdua', 'sudah', 'punya', 'isteri', 'sudah', 'beruban', 'semua', 'carikan', 'yang', 'single']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['achmadi']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['achmadi']</t>
+          <t>['berdua', 'isteri', 'beruban', 'carikan', 'single']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['dua', 'isteri', 'uban', 'cari', 'single']</t>
         </is>
       </c>
     </row>
@@ -2711,30 +3019,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>23262</v>
+        <v>31104</v>
       </c>
       <c r="C65" t="n">
-        <v>280</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>mereka berdua sudah punya isteri sudah beruban semua cariin yg sing</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mereka', 'berdua', 'sudah', 'punya', 'isteri', 'sudah', 'beruban', 'semua', 'cariin', 'yg', 'sing']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['mereka', 'berdua', 'sudah', 'punya', 'isteri', 'sudah', 'beruban', 'semua', 'carikan', 'yang', 'sing']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['berdua', 'isteri', 'beruban', 'carikan', 'sing']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['dua', 'isteri', 'uban', 'cari', 'sing']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3060,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23263</v>
+        <v>31105</v>
       </c>
       <c r="C66" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>petani sedang panen gelonbang terakhir</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['so']</t>
+          <t>['petani', 'sedang', 'panen', 'gelonbang', 'terakhir']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['petani', 'sedang', 'panen', 'gelonbang', 'terakhir']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['so']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['so']</t>
+          <t>['petani', 'panen', 'gelonbang']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['tani', 'panen', 'gelonbang']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3101,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23264</v>
+        <v>31106</v>
       </c>
       <c r="C67" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>streaming saja</t>
+          <t>semakin lobster itu besar semakin produktif dia sebagai induk australia hanya boleh tangkap yg ukrn</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['streaming', 'saja']</t>
+          <t>['semakin', 'lobster', 'itu', 'besar', 'semakin', 'produktif', 'dia', 'sebagai', 'induk', 'australia', 'hanya', 'boleh', 'tangkap', 'yg', 'ukrn']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['semakin', 'lobster', 'itu', 'besar', 'semakin', 'produktif', 'dia', 'sebagai', 'induk', 'australia', 'hanya', 'boleh', 'tangkap', 'yang', 'ukrn']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['streaming']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['streaming']</t>
+          <t>['lobster', 'produktif', 'induk', 'australia', 'tangkap', 'ukrn']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['lobster', 'produktif', 'induk', 'australia', 'tangkap', 'ukrn']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3142,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23265</v>
+        <v>31107</v>
       </c>
       <c r="C68" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>siaran ulang hari sabtu jam sama</t>
+          <t>tidak ada moratorium atau penghentian karena penangkapan bibit masih berjalan setiap malam</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['siaran', 'ulang', 'hari', 'sabtu', 'jam', 'sama']</t>
+          <t>['tidak', 'ada', 'moratorium', 'atau', 'penghentian', 'karena', 'penangkapan', 'bibit', 'masih', 'berjalan', 'setiap', 'malam']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['tidak', 'ada', 'moratorium', 'atau', 'penghentian', 'karena', 'penangkapan', 'bibit', 'masih', 'berjalan', 'setiap', 'malam']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['siaran', 'ulang', 'sabtu', 'jam']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['siar', 'ulang', 'sabtu', 'jam']</t>
+          <t>['moratorium', 'penghentian', 'penangkapan', 'bibit', 'berjalan', 'malam']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['moratorium', 'henti', 'tangkap', 'bibit', 'jalan', 'malam']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3183,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>23266</v>
+        <v>31108</v>
       </c>
       <c r="C69" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>malam ini jam di metro tv nonton susi cek ombak ya episode malam ini tentang kebebasan berpendapat dg na</t>
+          <t>terbalik itu pak salah ketikkah</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['malam', 'ini', 'jam', 'di', 'metro', 'tv', 'nonton', 'susi', 'cek', 'ombak', 'ya', 'episode', 'malam', 'ini', 'tentang', 'kebebasan', 'berpendapat', 'dg', 'na']</t>
+          <t>['terbalik', 'itu', 'pak', 'salah', 'ketikkah']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['terbalik', 'itu', 'pak', 'salah', 'ketikkah']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['malam', 'jam', 'metro', 'tv', 'nonton', 'susi', 'cek', 'ombak', 'episode', 'malam', 'kebebasan', 'berpendapat', 'na']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['malam', 'jam', 'metro', 'tv', 'nonton', 'sus', 'cek', 'ombak', 'episode', 'malam', 'bebas', 'dapat', 'na']</t>
+          <t>['terbalik', 'salah', 'ketikkah']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['balik', 'salah', 'ketik']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3224,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23267</v>
+        <v>31109</v>
       </c>
       <c r="C70" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt black caviar salah satu makanan mewah nya seafood ini mas alghozali bikin green caviar yang di budidaya sendiri di </t>
+          <t>selamat memperingati isra miraj nabi muhammad saw  bagi bpkibu yang melaksanakannya semoga dg mengena</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['rt', 'black', 'caviar', 'salah', 'satu', 'makanan', 'mewah', 'nya', 'seafood', 'ini', 'mas', 'alghozali', 'bikin', 'green', 'caviar', 'yang', 'di', 'budidaya', 'sendiri', 'di']</t>
+          <t>['selamat', 'memperingati', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'bagi', 'bpkibu', 'yang', 'melaksanakannya', 'semoga', 'dg', 'mengena']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['selamat', 'memperingati', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'bagi', 'bpkibu', 'yang', 'melaksanakannya', 'semoga', 'dengan', 'mengena']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['black', 'caviar', 'salah', 'makanan', 'mewah', 'seafood', 'mas', 'alghozali', 'green', 'caviar', 'budidaya']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['black', 'caviar', 'salah', 'makan', 'mewah', 'seafood', 'mas', 'alghozali', 'green', 'caviar', 'budidaya']</t>
+          <t>['selamat', 'memperingati', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'bpkibu', 'melaksanakannya', 'semoga', 'mengena']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['selamat', 'ingat', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'bpkibu', 'laksana', 'moga', 'kena']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3265,35 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23268</v>
+        <v>31110</v>
       </c>
       <c r="C71" t="n">
-        <v>280</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>salah satunya adalah bapak ini</t>
-        </is>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['salah', 'satunya', 'adalah', 'bapak', 'ini']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['salah', 'satunya']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['salah', 'satu']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3302,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23269</v>
+        <v>31111</v>
       </c>
       <c r="C72" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ok dehhhh</t>
+          <t>tshah</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['ok', 'dehhhh']</t>
+          <t>['tshah']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tshah']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['ok', 'dehhhh']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['ok', 'dehhhh']</t>
+          <t>['tshah']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['tshah']</t>
         </is>
       </c>
     </row>
@@ -2995,30 +3343,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>23270</v>
+        <v>31112</v>
       </c>
       <c r="C73" t="n">
-        <v>280</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>rt tshah otewe</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'tshah', 'otewe']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'tshah', 'otewe']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tshah', 'otewe']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['tshah', 'otewe']</t>
         </is>
       </c>
     </row>
@@ -3027,34 +3384,35 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>23271</v>
+        <v>31113</v>
       </c>
       <c r="C74" t="n">
-        <v>280</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>wise</t>
-        </is>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['wise']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['wise']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['wise']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3063,34 +3421,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23272</v>
+        <v>31114</v>
       </c>
       <c r="C75" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>hmmmm</t>
+          <t>natsirdmokrat</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['hmmmm']</t>
+          <t>['natsirdmokrat']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['natsirdmokrat']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['hmmmm']</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['hmmmm']</t>
+          <t>['natsirdmokrat']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['natsirdmokrat']</t>
         </is>
       </c>
     </row>
@@ -3099,30 +3462,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23273</v>
+        <v>31115</v>
       </c>
       <c r="C76" t="n">
-        <v>280</v>
-      </c>
-      <c r="D76" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>infuk induk</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['infuk', 'induk']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['infuk', 'induk']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['infuk', 'induk']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['infuk', 'induk']</t>
         </is>
       </c>
     </row>
@@ -3131,30 +3503,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>23274</v>
+        <v>31116</v>
       </c>
       <c r="C77" t="n">
-        <v>280</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>tv</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tv']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['televisi']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['televisi']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['televisi']</t>
         </is>
       </c>
     </row>
@@ -3163,30 +3544,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>23275</v>
+        <v>31117</v>
       </c>
       <c r="C78" t="n">
-        <v>280</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>seharusnya tidak ditangkap karena itu adalah infuk yg pasti sangat produktif</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['seharusnya', 'tidak', 'ditangkap', 'karena', 'itu', 'adalah', 'infuk', 'yg', 'pasti', 'sangat', 'produktif']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['seharusnya', 'tidak', 'ditangkap', 'karena', 'itu', 'adalah', 'infuk', 'yang', 'pasti', 'sangat', 'produktif']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ditangkap', 'infuk', 'produktif']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['tangkap', 'infuk', 'produktif']</t>
         </is>
       </c>
     </row>
@@ -3195,34 +3585,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>23276</v>
+        <v>31118</v>
       </c>
       <c r="C79" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>takut ditenggelamin ya</t>
+          <t>tv</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['takut', 'ditenggelamin', 'ya']</t>
+          <t>['tv']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['televisi']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['takut', 'ditenggelamin']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['takut', 'ditenggelamin']</t>
+          <t>['televisi']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['televisi']</t>
         </is>
       </c>
     </row>
@@ -3231,34 +3626,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23277</v>
+        <v>31119</v>
       </c>
       <c r="C80" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>buzerr itu apa ondel kah atau nama ikan</t>
+          <t xml:space="preserve"> tv</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['buzerr', 'itu', 'apa', 'ondel', 'kah', 'atau', 'nama', 'ikan']</t>
+          <t>['tv']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['televisi']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['buzerr', 'ondel', 'kah', 'nama', 'ikan']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['buzerr', 'ondel', 'kah', 'nama', 'ikan']</t>
+          <t>['televisi']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['televisi']</t>
         </is>
       </c>
     </row>
@@ -3267,34 +3667,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23278</v>
+        <v>31120</v>
       </c>
       <c r="C81" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>rt jika anda mengatakan ibu hanya diam ketika menjabatberar</t>
+          <t>rt kawan susi nggak mau dong ketinggalan aksi ibu naik motor trail makanya nonton hari rab</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['rt', 'jika', 'anda', 'mengatakan', 'ibu', 'hanya', 'diam', 'ketika', 'menjabatberar']</t>
+          <t>['rt', 'kawan', 'susi', 'nggak', 'mau', 'dong', 'ketinggalan', 'aksi', 'ibu', 'naik', 'motor', 'trail', 'makanya', 'nonton', 'hari', 'rab']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'kawan', 'susi', 'enggak', 'mau', 'dong', 'ketinggalan', 'aksi', 'ibu', 'naik', 'motor', 'trail', 'makanya', 'menonton', 'hari', 'rab']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['diam', 'menjabatberar']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['diam', 'menjabatberar']</t>
+          <t>['kawan', 'susi', 'ketinggalan', 'aksi', 'motor', 'trail', 'menonton', 'rab']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['kawan', 'sus', 'tinggal', 'aksi', 'motor', 'trail', 'tonton', 'rab']</t>
         </is>
       </c>
     </row>
@@ -3303,34 +3708,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>23279</v>
+        <v>31121</v>
       </c>
       <c r="C82" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>yg batalin reklamasi benoa itu ikan di bali ya</t>
+          <t>rt kata pak bu sekarang sudah jadi selebgram nih kawan susi apa benaaaar jawabannya cuma</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['yg', 'batalin', 'reklamasi', 'benoa', 'itu', 'ikan', 'di', 'bali', 'ya']</t>
+          <t>['rt', 'kata', 'pak', 'bu', 'sekarang', 'sudah', 'jadi', 'selebgram', 'nih', 'kawan', 'susi', 'apa', 'benaaaar', 'jawabannya', 'cuma']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'kata', 'pak', 'bu', 'sekarang', 'sudah', 'jadi', 'selebriti, instagram', 'nih', 'kawan', 'susi', 'apa', 'benaaaar', 'jawabannya', 'cuma']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['batalin', 'reklamasi', 'benoa', 'ikan', 'bali']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['batalin', 'reklamasi', 'benoa', 'ikan', 'bal']</t>
+          <t>['bu', 'selebriti, instagram', 'kawan', 'susi', 'benaaaar', 'jawabannya']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['bu', 'selebriti instagram', 'kawan', 'sus', 'benaaaar', 'jawab']</t>
         </is>
       </c>
     </row>
@@ -3339,34 +3749,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>23280</v>
+        <v>31122</v>
       </c>
       <c r="C83" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>mungkin anda lagi pake headset jadi ndak dengar waktu itu</t>
+          <t>rt tv kawan susi yang butuh piknik wajib nonton malam ini pukul wib bareng pak jangan sampai keting</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['mungkin', 'anda', 'lagi', 'pake', 'headset', 'jadi', 'ndak', 'dengar', 'waktu', 'itu']</t>
+          <t>['rt', 'tv', 'kawan', 'susi', 'yang', 'butuh', 'piknik', 'wajib', 'nonton', 'malam', 'ini', 'pukul', 'wib', 'bareng', 'pak', 'jangan', 'sampai', 'keting']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'televisi', 'kawan', 'susi', 'yang', 'butuh', 'piknik', 'wajib', 'menonton', 'malam', 'ini', 'pukul', 'waktu, indonesia, bagian, barat', 'bareng', 'pak', 'jangan', 'sampai', 'keting']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['pake', 'headset', 'ndak', 'dengar']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['pake', 'headset', 'ndak', 'dengar']</t>
+          <t>['televisi', 'kawan', 'susi', 'butuh', 'piknik', 'wajib', 'menonton', 'malam', 'waktu, indonesia, bagian, barat', 'bareng', 'keting']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['televisi', 'kawan', 'sus', 'butuh', 'piknik', 'wajib', 'tonton', 'malam', 'waktu indonesia bagi barat', 'bareng', 'keting']</t>
         </is>
       </c>
     </row>
@@ -3375,34 +3790,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23281</v>
+        <v>31123</v>
       </c>
       <c r="C84" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rt salut bu susi berani pintar amp kapabel berintegritasfixed</t>
+          <t>rt tv klb itu apa sejenis makanan atau nama jalan</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rt', 'salut', 'bu', 'susi', 'berani', 'pintar', 'amp', 'kapabel', 'berintegritasfixed']</t>
+          <t>['rt', 'tv', 'klb', 'itu', 'apa', 'sejenis', 'makanan', 'atau', 'nama', 'jalan']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'televisi', 'klb', 'itu', 'apa', 'sejenis', 'makanan', 'atau', 'nama', 'jalan']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['salut', 'bu', 'susi', 'berani', 'pintar', 'kapabel', 'berintegritasfixed']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['salut', 'bu', 'sus', 'berani', 'pintar', 'kapabel', 'berintegritasfixed']</t>
+          <t>['televisi', 'klb', 'sejenis', 'makanan', 'nama', 'jalan']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['televisi', 'klb', 'jenis', 'makan', 'nama', 'jalan']</t>
         </is>
       </c>
     </row>
@@ -3411,34 +3831,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>23282</v>
+        <v>31124</v>
       </c>
       <c r="C85" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>hoax anda serius ya sy follow up</t>
+          <t>tv klb itu apa sejenis makanan atau nama jalan</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['hoax', 'anda', 'serius', 'ya', 'sy', 'follow', 'up']</t>
+          <t>['tv', 'klb', 'itu', 'apa', 'sejenis', 'makanan', 'atau', 'nama', 'jalan']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['televisi', 'klb', 'itu', 'apa', 'sejenis', 'makanan', 'atau', 'nama', 'jalan']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['hoax', 'serius', 'sy', 'follow', 'up']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['hoax', 'serius', 'sy', 'follow', 'up']</t>
+          <t>['televisi', 'klb', 'sejenis', 'makanan', 'nama', 'jalan']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['televisi', 'klb', 'jenis', 'makan', 'nama', 'jalan']</t>
         </is>
       </c>
     </row>
@@ -3447,34 +3872,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>23283</v>
+        <v>31125</v>
       </c>
       <c r="C86" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>percakapan di tweeter itu hebat lho orangnya penuh dg bapak pintar yg bisa menakar manusia dengan kurang lebih</t>
+          <t>rt siapsiap nonton aksi bu susi naik motor trail di malam ini yaa pukul wib hanya di tv kalau</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['percakapan', 'di', 'tweeter', 'itu', 'hebat', 'lho', 'orangnya', 'penuh', 'dg', 'bapak', 'pintar', 'yg', 'bisa', 'menakar', 'manusia', 'dengan', 'kurang', 'lebih']</t>
+          <t>['rt', 'siapsiap', 'nonton', 'aksi', 'bu', 'susi', 'naik', 'motor', 'trail', 'di', 'malam', 'ini', 'yaa', 'pukul', 'wib', 'hanya', 'di', 'tv', 'kalau']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'siapsiap', 'menonton', 'aksi', 'bu', 'susi', 'naik', 'motor', 'trail', 'di', 'malam', 'ini', 'ya', 'pukul', 'waktu, indonesia, bagian, barat', 'hanya', 'di', 'televisi', 'kalau']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['percakapan', 'tweeter', 'hebat', 'lho', 'orangnya', 'penuh', 'pintar', 'menakar', 'manusia']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['cakap', 'tweeter', 'hebat', 'lho', 'orang', 'penuh', 'pintar', 'takar', 'manusia']</t>
+          <t>['siapsiap', 'menonton', 'aksi', 'bu', 'susi', 'motor', 'trail', 'malam', 'waktu, indonesia, bagian, barat', 'televisi']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['siapsiap', 'tonton', 'aksi', 'bu', 'sus', 'motor', 'trail', 'malam', 'waktu indonesia bagi barat', 'televisi']</t>
         </is>
       </c>
     </row>
@@ -3483,34 +3913,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>23284</v>
+        <v>31126</v>
       </c>
       <c r="C87" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>didu saya sangat kurang pak wirianto widjaya</t>
+          <t xml:space="preserve">malam ini saya kembali mengajak pak bergabung di namun kali ini bukan lomba paddling </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['didu', 'saya', 'sangat', 'kurang', 'pak', 'wirianto', 'widjaya']</t>
+          <t>['malam', 'ini', 'saya', 'kembali', 'mengajak', 'pak', 'bergabung', 'di', 'namun', 'kali', 'ini', 'bukan', 'lomba', 'paddling']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['malam', 'ini', 'saya', 'kembali', 'mengajak', 'pak', 'bergabung', 'di', 'namun', 'kali', 'ini', 'bukan', 'lomba', 'paddling']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['didu', 'wirianto', 'widjaya']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['didu', 'wirianto', 'widjaya']</t>
+          <t>['malam', 'mengajak', 'bergabung', 'kali', 'lomba', 'paddling']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['malam', 'ajak', 'gabung', 'kali', 'lomba', 'paddling']</t>
         </is>
       </c>
     </row>
@@ -3519,34 +3954,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>23285</v>
+        <v>31127</v>
       </c>
       <c r="C88" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>didu saya sangat kurang pak</t>
+          <t>semestinya tokoh masyarakat amp pemerintah bisa memberikan edukasi ttg hal ini sehingga mereka mau menerima menjadi</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['didu', 'saya', 'sangat', 'kurang', 'pak']</t>
+          <t>['semestinya', 'tokoh', 'masyarakat', 'amp', 'pemerintah', 'bisa', 'memberikan', 'edukasi', 'ttg', 'hal', 'ini', 'sehingga', 'mereka', 'mau', 'menerima', 'menjadi']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['semestinya', 'tokoh', 'masyarakat', 'amp', 'pemerintah', 'bisa', 'memberikan', 'edukasi', 'tentang', 'hal', 'ini', 'sehingga', 'mereka', 'mau', 'menerima', 'menjadi']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['didu']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['didu']</t>
+          <t>['semestinya', 'tokoh', 'masyarakat', 'pemerintah', 'edukasi', 'menerima']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['mesti', 'tokoh', 'masyarakat', 'perintah', 'edukasi', 'terima']</t>
         </is>
       </c>
     </row>
@@ -3555,34 +3995,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>23286</v>
+        <v>31128</v>
       </c>
       <c r="C89" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>bang rizal kalau begawan seperti bang rizal aja belum pintar ternyata masih kecele terus level sa</t>
+          <t>rt three species of deepsea shark including the sixfootlong kitefin shark have been found to be bioluminescent</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['bang', 'rizal', 'kalau', 'begawan', 'seperti', 'bang', 'rizal', 'aja', 'belum', 'pintar', 'ternyata', 'masih', 'kecele', 'terus', 'level', 'sa']</t>
+          <t>['rt', 'three', 'species', 'of', 'deepsea', 'shark', 'including', 'the', 'sixfootlong', 'kitefin', 'shark', 'have', 'been', 'found', 'to', 'be', 'bioluminescent']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'three', 'species', 'of', 'deepsea', 'shark', 'including', 'the', 'sixfootlong', 'kitefin', 'shark', 'have', 'been', 'found', 'to', 'be', 'bioluminescent']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['bang', 'rizal', 'begawan', 'bang', 'rizal', 'pintar', 'kecele', 'level', 'sa']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['bang', 'rizal', 'begawan', 'bang', 'rizal', 'pintar', 'kecele', 'level', 'sa']</t>
+          <t>['three', 'species', 'of', 'deepsea', 'shark', 'including', 'the', 'sixfootlong', 'kitefin', 'shark', 'have', 'been', 'found', 'to', 'be', 'bioluminescent']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['three', 'species', 'of', 'deepsea', 'shark', 'including', 'the', 'sixfootlong', 'kitefin', 'shark', 'have', 'been', 'found', 'to', 'be', 'bioluminescent']</t>
         </is>
       </c>
     </row>
@@ -3591,34 +4036,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>23287</v>
+        <v>31129</v>
       </c>
       <c r="C90" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>kurw</t>
+          <t>rt kawan susi yang butuh piknik wajib nonton malam ini pukul wib bareng pak ibu</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['kurw']</t>
+          <t>['rt', 'kawan', 'susi', 'yang', 'butuh', 'piknik', 'wajib', 'nonton', 'malam', 'ini', 'pukul', 'wib', 'bareng', 'pak', 'ibu']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'kawan', 'susi', 'yang', 'butuh', 'piknik', 'wajib', 'menonton', 'malam', 'ini', 'pukul', 'waktu, indonesia, bagian, barat', 'bareng', 'pak', 'ibu']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['kurw']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['kurw']</t>
+          <t>['kawan', 'susi', 'butuh', 'piknik', 'wajib', 'menonton', 'malam', 'waktu, indonesia, bagian, barat', 'bareng']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['kawan', 'sus', 'butuh', 'piknik', 'wajib', 'tonton', 'malam', 'waktu indonesia bagi barat', 'bareng']</t>
         </is>
       </c>
     </row>
@@ -3627,34 +4077,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>23288</v>
+        <v>31130</v>
       </c>
       <c r="C91" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>rt jangan juga pake cek ombak sebab cek ombak adalah acara kondangnya bu</t>
+          <t>rt cathay pacific posts record bn loss for</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['rt', 'jangan', 'juga', 'pake', 'cek', 'ombak', 'sebab', 'cek', 'ombak', 'adalah', 'acara', 'kondangnya', 'bu']</t>
+          <t>['rt', 'cathay', 'pacific', 'posts', 'record', 'bn', 'loss', 'for']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'cathay', 'pacific', 'posts', 'record', 'bn', 'loss', 'for']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['pake', 'cek', 'ombak', 'cek', 'ombak', 'acara', 'kondangnya', 'bu']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['pake', 'cek', 'ombak', 'cek', 'ombak', 'acara', 'kondang', 'bu']</t>
+          <t>['cathay', 'pacific', 'posts', 'record', 'bn', 'loss', 'for']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['cathay', 'pacific', 'posts', 'record', 'bn', 'loss', 'for']</t>
         </is>
       </c>
     </row>
@@ -3663,34 +4118,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>23289</v>
+        <v>31131</v>
       </c>
       <c r="C92" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt semoga testing the water tidak jadi sop resmi</t>
+          <t xml:space="preserve">rt orang bilang dulu saya anteknya china dalam hati saya bilang nenek kau antek china emang lu bisa beli gue kata luhut </t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'semoga', 'testing', 'the', 'water', 'tidak', 'jadi', 'sop', 'resmi']</t>
+          <t>['rt', 'orang', 'bilang', 'dulu', 'saya', 'anteknya', 'china', 'dalam', 'hati', 'saya', 'bilang', 'nenek', 'kau', 'antek', 'china', 'emang', 'lu', 'bisa', 'beli', 'gue', 'kata', 'luhut']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'orang', 'bilang', 'dulu', 'saya', 'anteknya', 'cina', 'dalam', 'hati', 'saya', 'bilang', 'nenek', 'kamu', 'antek', 'cina', 'memang', 'kamu', 'bisa', 'beli', 'gue', 'kata', 'luhut']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['semoga', 'testing', 'the', 'water', 'sop', 'resmi']</t>
+          <t>&lt;FreqDist with 18 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['moga', 'testing', 'the', 'water', 'sop', 'resmi']</t>
+          <t>['orang', 'anteknya', 'cina', 'hati', 'nenek', 'antek', 'cina', 'beli', 'gue', 'luhut']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['orang', 'antek', 'cina', 'hati', 'nenek', 'antek', 'cina', 'beli', 'gue', 'luhut']</t>
         </is>
       </c>
     </row>
@@ -3699,34 +4159,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>23290</v>
+        <v>31132</v>
       </c>
       <c r="C93" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>manalu kabar baik yg patut kita syukuri dan jaga bersama</t>
+          <t>rt oknum polisi di jatim dari tingkat polsek hingga polda diduga terlibat peredaran narkoba</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['manalu', 'kabar', 'baik', 'yg', 'patut', 'kita', 'syukuri', 'dan', 'jaga', 'bersama']</t>
+          <t>['rt', 'oknum', 'polisi', 'di', 'jatim', 'dari', 'tingkat', 'polsek', 'hingga', 'polda', 'diduga', 'terlibat', 'peredaran', 'narkoba']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'oknum', 'polisi', 'di', 'jawa, timur', 'dari', 'tingkat', 'kepolisian, sektor', 'hingga', 'kepolisian, daerah', 'diduga', 'terlibat', 'peredaran', 'narkoba']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['manalu', 'kabar', 'patut', 'syukuri', 'jaga']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['manalu', 'kabar', 'patut', 'syukur', 'jaga']</t>
+          <t>['oknum', 'polisi', 'jawa, timur', 'tingkat', 'kepolisian, sektor', 'kepolisian, daerah', 'diduga', 'terlibat', 'peredaran', 'narkoba']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['oknum', 'polisi', 'jawa timur', 'tingkat', 'polisi sektor', 'polisi daerah', 'duga', 'libat', 'edar', 'narkoba']</t>
         </is>
       </c>
     </row>
@@ -3735,34 +4200,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>23291</v>
+        <v>31133</v>
       </c>
       <c r="C94" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>cek ombak harus di laut</t>
+          <t xml:space="preserve">rt  big swiss commodity trader agreed to buy million of copper but when the cargoes arrived all it found were containers </t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['cek', 'ombak', 'harus', 'di', 'laut']</t>
+          <t>['rt', 'big', 'swiss', 'commodity', 'trader', 'agreed', 'to', 'buy', 'million', 'of', 'copper', 'but', 'when', 'the', 'cargoes', 'arrived', 'all', 'it', 'found', 'were', 'containers']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'besar', 'swiss', 'commodity', 'trader', 'agreed', 'to', 'buy', 'million', 'of', 'copper', 'but', 'when', 'the', 'cargoes', 'arrived', 'all', 'it', 'found', 'were', 'containers']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['cek', 'ombak', 'laut']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['cek', 'ombak', 'laut']</t>
+          <t>['swiss', 'commodity', 'trader', 'agreed', 'to', 'buy', 'million', 'of', 'copper', 'but', 'when', 'the', 'cargoes', 'arrived', 'all', 'it', 'found', 'were', 'containers']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['swiss', 'commodity', 'trader', 'agreed', 'to', 'buy', 'million', 'of', 'copper', 'but', 'when', 'the', 'cargoes', 'arrived', 'all', 'it', 'found', 'were', 'containers']</t>
         </is>
       </c>
     </row>
@@ -3771,34 +4241,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>23292</v>
+        <v>31134</v>
       </c>
       <c r="C95" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rt kami kan awalnya karena ngotot melapor tapi saat melapor semuanya masih bingung menghadapi kami sebagai pasien tidak diber</t>
+          <t>rt these were leaders for whom battle was not  metaphor</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'kami', 'kan', 'awalnya', 'karena', 'ngotot', 'melapor', 'tapi', 'saat', 'melapor', 'semuanya', 'masih', 'bingung', 'menghadapi', 'kami', 'sebagai', 'pasien', 'tidak', 'diber']</t>
+          <t>['rt', 'these', 'were', 'leaders', 'for', 'whom', 'battle', 'was', 'not', 'metaphor']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'these', 'were', 'pemimpin', 'for', 'whom', 'battle', 'was', 'not', 'metaphor']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['ngotot', 'melapor', 'melapor', 'bingung', 'menghadapi', 'pasien', 'diber']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['ngotot', 'lapor', 'lapor', 'bingung', 'hadap', 'pasien', 'diber']</t>
+          <t>['these', 'were', 'pemimpin', 'for', 'whom', 'battle', 'was', 'not', 'metaphor']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['these', 'were', 'pimpin', 'for', 'whom', 'battle', 'was', 'not', 'metaphor']</t>
         </is>
       </c>
     </row>
@@ -3807,34 +4282,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>23293</v>
+        <v>31135</v>
       </c>
       <c r="C96" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt breaking australia continued its rapid recovery in the last three months of with gdp jumping on quarter thanks </t>
+          <t>rt luhut pandjaitan saya sedih anak muda lacurkan profesionalisme demi uang</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'breaking', 'australia', 'continued', 'its', 'rapid', 'recovery', 'in', 'the', 'last', 'three', 'months', 'of', 'with', 'gdp', 'jumping', 'on', 'quarter', 'thanks']</t>
+          <t>['rt', 'luhut', 'pandjaitan', 'saya', 'sedih', 'anak', 'muda', 'lacurkan', 'profesionalisme', 'demi', 'uang']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'luhut', 'pandjaitan', 'saya', 'sedih', 'anak', 'muda', 'lacurkan', 'profesionalisme', 'demi', 'uang']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['breaking', 'australia', 'continued', 'its', 'rapid', 'recovery', 'in', 'the', 'last', 'three', 'months', 'of', 'with', 'gdp', 'jumping', 'on', 'quarter', 'thanks']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['breaking', 'australia', 'continued', 'its', 'rapid', 'recovery', 'in', 'the', 'last', 'three', 'months', 'of', 'with', 'gdp', 'jumping', 'on', 'quarter', 'thanks']</t>
+          <t>['luhut', 'pandjaitan', 'sedih', 'anak', 'muda', 'lacurkan', 'profesionalisme', 'uang']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['luhut', 'pandjaitan', 'sedih', 'anak', 'muda', 'lacur', 'profesionalisme', 'uang']</t>
         </is>
       </c>
     </row>
@@ -3843,34 +4323,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>23294</v>
+        <v>31136</v>
       </c>
       <c r="C97" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rt bersama ini saya sampaikan saya putuskan lampiran perpres terkait pembukaan investasi baru dalam industri minuman keras ya</t>
+          <t>rt banyak orang pintar di negeri ini sehingga kita harus bekerja sama dan bekerja dengan hati untuk negeri tercinta ujar me</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['rt', 'bersama', 'ini', 'saya', 'sampaikan', 'saya', 'putuskan', 'lampiran', 'perpres', 'terkait', 'pembukaan', 'investasi', 'baru', 'dalam', 'industri', 'minuman', 'keras', 'ya']</t>
+          <t>['rt', 'banyak', 'orang', 'pintar', 'di', 'negeri', 'ini', 'sehingga', 'kita', 'harus', 'bekerja', 'sama', 'dan', 'bekerja', 'dengan', 'hati', 'untuk', 'negeri', 'tercinta', 'ujar', 'me']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'banyak', 'orang', 'pintar', 'di', 'negeri', 'ini', 'sehingga', 'kita', 'harus', 'bekerja', 'sama', 'dan', 'bekerja', 'dengan', 'hati', 'untuk', 'negeri', 'tercinta', 'ujar', 'me']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['putuskan', 'lampiran', 'perpres', 'terkait', 'pembukaan', 'investasi', 'industri', 'minuman', 'keras']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['putus', 'lampir', 'pres', 'kait', 'buka', 'investasi', 'industri', 'minum', 'keras']</t>
+          <t>['orang', 'pintar', 'negeri', 'hati', 'negeri', 'tercinta', 'me']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['orang', 'pintar', 'negeri', 'hati', 'negeri', 'cinta', 'me']</t>
         </is>
       </c>
     </row>
@@ -3879,34 +4364,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>23295</v>
+        <v>31137</v>
       </c>
       <c r="C98" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt tahun covid di indonesia kamu mau bilang apa nih kawan susi </t>
+          <t xml:space="preserve">rt jennifer oleary developed  new approach to help managers make protected areas work for people </t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rt', 'tahun', 'covid', 'di', 'indonesia', 'kamu', 'mau', 'bilang', 'apa', 'nih', 'kawan', 'susi']</t>
+          <t>['rt', 'jennifer', 'oleary', 'developed', 'new', 'approach', 'to', 'help', 'managers', 'make', 'protected', 'areas', 'work', 'for', 'people']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'jennifer', 'oleary', 'developed', 'new', 'approach', 'to', 'help', 'managers', 'make', 'protected', 'areas', 'work', 'for', 'people']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['covid', 'indonesia', 'kawan', 'susi']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['covid', 'indonesia', 'kawan', 'sus']</t>
+          <t>['jennifer', 'oleary', 'developed', 'new', 'approach', 'to', 'help', 'managers', 'make', 'protected', 'areas', 'work', 'for', 'people']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['jennifer', 'oleary', 'developed', 'new', 'approach', 'to', 'help', 'managers', 'make', 'protected', 'areas', 'work', 'for', 'people']</t>
         </is>
       </c>
     </row>
@@ -3915,34 +4405,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>23296</v>
+        <v>31138</v>
       </c>
       <c r="C99" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>setahun covid di indonesia ternyata ada kabupaten di papua yang tak tersentuh corona</t>
+          <t>rt imagine what its like to go where you have  mile of water over your head its dark but its beautiful</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['setahun', 'covid', 'di', 'indonesia', 'ternyata', 'ada', 'kabupaten', 'di', 'papua', 'yang', 'tak', 'tersentuh', 'corona']</t>
+          <t>['rt', 'imagine', 'what', 'its', 'like', 'to', 'go', 'where', 'you', 'have', 'mile', 'of', 'water', 'over', 'your', 'head', 'its', 'dark', 'but', 'its', 'beautiful']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'imajinasi', 'apa', 'ini', 'like', 'to', 'go', 'where', 'kamu', 'have', 'mile', 'of', 'water', 'over', 'your', 'head', 'ini', 'dark', 'but', 'ini', 'cantik']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['setahun', 'covid', 'indonesia', 'kabupaten', 'papua', 'tersentuh', 'corona']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['tahun', 'covid', 'indonesia', 'kabupaten', 'papua', 'sentuh', 'corona']</t>
+          <t>['imajinasi', 'like', 'to', 'go', 'where', 'have', 'mile', 'of', 'water', 'over', 'your', 'head', 'dark', 'but', 'cantik']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['imajinasi', 'like', 'to', 'go', 'where', 'have', 'mile', 'of', 'water', 'over', 'your', 'head', 'dark', 'but', 'cantik']</t>
         </is>
       </c>
     </row>
@@ -3951,34 +4446,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>23297</v>
+        <v>31139</v>
       </c>
       <c r="C100" t="n">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>rt minggu februari berlokasi di sekitar perairan pulau masalembu sumenep jawa timur telah diselenggarakan pawai</t>
+          <t>rt kedatangan jokowi ke semarang membuat seluruh lubang di jalan yang akan dilewati segera ditambal</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['rt', 'minggu', 'februari', 'berlokasi', 'di', 'sekitar', 'perairan', 'pulau', 'masalembu', 'sumenep', 'jawa', 'timur', 'telah', 'diselenggarakan', 'pawai']</t>
+          <t>['rt', 'kedatangan', 'jokowi', 'ke', 'semarang', 'membuat', 'seluruh', 'lubang', 'di', 'jalan', 'yang', 'akan', 'dilewati', 'segera', 'ditambal']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['rt', 'kedatangan', 'jokowi', 'ke', 'semarang', 'membuat', 'seluruh', 'lubang', 'di', 'jalan', 'yang', 'akan', 'dilewati', 'segera', 'ditambal']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['minggu', 'februari', 'berlokasi', 'perairan', 'pulau', 'masalembu', 'sumenep', 'jawa', 'timur', 'diselenggarakan', 'pawai']</t>
-        </is>
-      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['minggu', 'februari', 'lokasi', 'air', 'pulau', 'masalembu', 'sumenep', 'jawa', 'timur', 'selenggara', 'pawai']</t>
+          <t>['kedatangan', 'jokowi', 'semarang', 'lubang', 'jalan', 'dilewati', 'ditambal']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['datang', 'jokowi', 'semarang', 'lubang', 'jalan', 'lewat', 'tambal']</t>
         </is>
       </c>
     </row>
@@ -3987,34 +4487,35 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>23298</v>
+        <v>31140</v>
       </c>
       <c r="C101" t="n">
-        <v>280</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>rt persatuan nelayan masalembu berusaha keras menolak peraturan tersebut yang memperbolehkan cantrang dibiarkan beroperasi</t>
-        </is>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['rt', 'persatuan', 'nelayan', 'masalembu', 'berusaha', 'keras', 'menolak', 'peraturan', 'tersebut', 'yang', 'memperbolehkan', 'cantrang', 'dibiarkan', 'beroperasi']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['persatuan', 'nelayan', 'masalembu', 'berusaha', 'keras', 'menolak', 'peraturan', 'memperbolehkan', 'cantrang', 'dibiarkan', 'beroperasi']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['satu', 'nelayan', 'masalembu', 'usaha', 'keras', 'tolak', 'atur', 'boleh', 'cantrang', 'biar', 'operasi']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
